--- a/biology/Médecine/1662_en_santé_et_médecine/1662_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1662_en_santé_et_médecine/1662_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1662_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1662_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1662 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1662_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1662_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Angleterre
-10-13 mars : procès des sorcières de Bury St Edmunds[1].
+10-13 mars : procès des sorcières de Bury St Edmunds.
 France
-7 janvier : guérison « miraculeuse », à Port-Royal, de la sœur Catherine de Sainte-Suzanne, fille de Philippe de Champaigne[2].
+7 janvier : guérison « miraculeuse », à Port-Royal, de la sœur Catherine de Sainte-Suzanne, fille de Philippe de Champaigne.
 5 mars : « C'est pourquoi [les pauvres] meurent de faim ; oui, Messieurs, ils meurent de faim dans vos terres, dans vos châteaux, dans les villes, dans les campagnes, à la porte et aux environs de vos hôtels : nul ne court à leur aide. Hélas! ils ne vous demandent que le superflu, quelques miettes de votre table, quelques restes de votre grande chère. » — Œuvres oratoires de Bossuet, éd. Lebarq, 1922, t. IV,p. 210-212.
-12 juin : L’hôpital de Dijon, nommé hôpital du Saint-Esprit lors de sa fondation en 1204, obtient le titre d’hôpital général par déclaration royale[3].
-14 juin : Louis XIV ordonne la création d’un hôpital général dans toutes les grandes villes de France, destiné à enfermer les mendiants, gueux et autres indigents qui envahissent les villes à la suite des guerres et des disettes fréquentes dans la deuxième moitié du XVIIe siècle[3].
-17 août : Blaise Pascal a des convulsions et reçoit l’extrême onction. Il meurt à une heure du matin peut-être d'une polykystose rénale autosomique dominante[4].</t>
+12 juin : L’hôpital de Dijon, nommé hôpital du Saint-Esprit lors de sa fondation en 1204, obtient le titre d’hôpital général par déclaration royale.
+14 juin : Louis XIV ordonne la création d’un hôpital général dans toutes les grandes villes de France, destiné à enfermer les mendiants, gueux et autres indigents qui envahissent les villes à la suite des guerres et des disettes fréquentes dans la deuxième moitié du XVIIe siècle.
+17 août : Blaise Pascal a des convulsions et reçoit l’extrême onction. Il meurt à une heure du matin peut-être d'une polykystose rénale autosomique dominante.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1662_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1662_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(la) Lorenzo Bellini, Exercitatio de structura et usu renum, Florence, 1662. Découverte des canaux collecteurs du rein (tubes de Bellini) et théorie physique de la formation de l'urine.
-(en) John Graunt, Natural and political observations upon the bills of mortality, Londres, 1662. Ouvrage fondateur de la démographie[5], à propos des données de mortalité liées à la peste[6].</t>
+(en) John Graunt, Natural and political observations upon the bills of mortality, Londres, 1662. Ouvrage fondateur de la démographie, à propos des données de mortalité liées à la peste.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1662_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1662_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>10 décembre : Alessandro Knips Macoppe (it) (mort en 1744), médecin italien.</t>
         </is>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1662_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1662_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14 ou 24 mars : Christian Lange (de) (né en 1619)[7], médecin allemand qui pensait que des maladies proviennent de vers et autres animalcules parasites[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 ou 24 mars : Christian Lange (de) (né en 1619), médecin allemand qui pensait que des maladies proviennent de vers et autres animalcules parasites.</t>
         </is>
       </c>
     </row>
